--- a/DateBase/orders/Nha Thu_2025-11-30.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-30.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010143201371100</v>
+        <v>01010143201371105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-30.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,175 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>4</v>
+      </c>
+      <c r="C20" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>741_袋鼠爪红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>111_绣球紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F26" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F27" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F28" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>80_冰清玉洁_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010143201371105</v>
+        <v>0101014320137110515591166515111051030151530201061</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-30.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,12 +690,96 @@
         <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>5</v>
+      </c>
+      <c r="C34" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>839_洋牡丹洋葱_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>6</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -753,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101014320137110515591166515111051030151530201061</v>
+        <v>0101014320137110515591166515111051030151530201061551551052010550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-30.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-30.xlsx
@@ -776,6 +776,9 @@
         <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
 white_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -837,7 +840,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101014320137110515591166515111051030151530201061551551052010550</v>
+        <v>01010143201371105155911665151110510301515302010615515510520105515</v>
       </c>
     </row>
   </sheetData>
